--- a/results/real_data_freelancer_0.2_opt_constrained/k=0.2/Distorted_greedy/dataset_09/results_excel_26-9-22_freelancer_constrained_1_.xlsx
+++ b/results/real_data_freelancer_0.2_opt_constrained/k=0.2/Distorted_greedy/dataset_09/results_excel_26-9-22_freelancer_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\real_data_freelancer_0.2_opt_constrained\k=0.2\Distorted_greedy\dataset_09\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C9A41A-7042-43B8-9567-5720A62C8113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>dataset</t>
   </si>
@@ -122,13 +141,25 @@
   </si>
   <si>
     <t>Official_Experiment_dgreedy_dataset_09_instance_10_9_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +173,24 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -180,22 +229,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -237,7 +298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,9 +330,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +382,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,14 +575,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -618,10 +717,10 @@
         <v>131.5185809992069</v>
       </c>
       <c r="S2">
-        <v>4.216216216216216</v>
+        <v>4.2162162162162158</v>
       </c>
       <c r="T2">
-        <v>4.216216216216216</v>
+        <v>4.2162162162162158</v>
       </c>
       <c r="U2">
         <v>1.438938094605313</v>
@@ -642,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -683,7 +782,7 @@
         <v>0.2</v>
       </c>
       <c r="N3">
-        <v>0.985663082437276</v>
+        <v>0.98566308243727596</v>
       </c>
       <c r="O3">
         <v>380</v>
@@ -692,22 +791,22 @@
         <v>101</v>
       </c>
       <c r="Q3">
-        <v>1.325050735879172</v>
+        <v>1.3250507358791721</v>
       </c>
       <c r="R3">
-        <v>145.1698756762036</v>
+        <v>145.16987567620359</v>
       </c>
       <c r="S3">
-        <v>3.762376237623762</v>
+        <v>3.7623762376237622</v>
       </c>
       <c r="T3">
-        <v>3.619047619047619</v>
+        <v>3.6190476190476191</v>
       </c>
       <c r="U3">
         <v>1.286210902562908</v>
       </c>
       <c r="V3">
-        <v>139.9478552308946</v>
+        <v>139.94785523089459</v>
       </c>
       <c r="W3">
         <v>710</v>
@@ -719,10 +818,10 @@
         <v>706</v>
       </c>
       <c r="Z3">
-        <v>1.005665722379603</v>
+        <v>1.0056657223796031</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -763,7 +862,7 @@
         <v>0.2</v>
       </c>
       <c r="N4">
-        <v>0.9907834101382489</v>
+        <v>0.99078341013824889</v>
       </c>
       <c r="O4">
         <v>573</v>
@@ -775,10 +874,10 @@
         <v>1.416411783584048</v>
       </c>
       <c r="R4">
-        <v>237.1187620818174</v>
+        <v>237.11876208181741</v>
       </c>
       <c r="S4">
-        <v>4.122302158273381</v>
+        <v>4.1223021582733814</v>
       </c>
       <c r="T4">
         <v>4.553719008264463</v>
@@ -787,7 +886,7 @@
         <v>1.515944263556174</v>
       </c>
       <c r="V4">
-        <v>246.570744109703</v>
+        <v>246.57074410970301</v>
       </c>
       <c r="W4">
         <v>958</v>
@@ -802,7 +901,7 @@
         <v>1.0041928721174</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -852,22 +951,22 @@
         <v>103</v>
       </c>
       <c r="Q5">
-        <v>1.231739068703661</v>
+        <v>1.2317390687036609</v>
       </c>
       <c r="R5">
-        <v>123.1308759235229</v>
+        <v>123.13087592352289</v>
       </c>
       <c r="S5">
-        <v>3.427184466019417</v>
+        <v>3.4271844660194168</v>
       </c>
       <c r="T5">
-        <v>3.427184466019417</v>
+        <v>3.4271844660194168</v>
       </c>
       <c r="U5">
-        <v>1.231739068703661</v>
+        <v>1.2317390687036609</v>
       </c>
       <c r="V5">
-        <v>123.1308759235229</v>
+        <v>123.13087592352289</v>
       </c>
       <c r="W5">
         <v>441</v>
@@ -882,7 +981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -932,22 +1031,22 @@
         <v>133</v>
       </c>
       <c r="Q6">
-        <v>0.9845816026302767</v>
+        <v>0.98458160263027672</v>
       </c>
       <c r="R6">
-        <v>92.05064685017319</v>
+        <v>92.050646850173194</v>
       </c>
       <c r="S6">
-        <v>2.676691729323308</v>
+        <v>2.6766917293233079</v>
       </c>
       <c r="T6">
-        <v>2.676691729323308</v>
+        <v>2.6766917293233079</v>
       </c>
       <c r="U6">
-        <v>0.9845816026302767</v>
+        <v>0.98458160263027672</v>
       </c>
       <c r="V6">
-        <v>92.05064685017319</v>
+        <v>92.050646850173194</v>
       </c>
       <c r="W6">
         <v>595</v>
@@ -962,7 +1061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1003,7 +1102,7 @@
         <v>0.2</v>
       </c>
       <c r="N7">
-        <v>0.9830508474576272</v>
+        <v>0.98305084745762716</v>
       </c>
       <c r="O7">
         <v>408</v>
@@ -1012,10 +1111,10 @@
         <v>113</v>
       </c>
       <c r="Q7">
-        <v>1.283879355691821</v>
+        <v>1.2838793556918211</v>
       </c>
       <c r="R7">
-        <v>149.9216328068242</v>
+        <v>149.92163280682419</v>
       </c>
       <c r="S7">
         <v>3.610619469026549</v>
@@ -1042,7 +1141,7 @@
         <v>1.005868544600939</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1083,7 +1182,7 @@
         <v>0.2</v>
       </c>
       <c r="N8">
-        <v>0.9571428571428572</v>
+        <v>0.95714285714285718</v>
       </c>
       <c r="O8">
         <v>403</v>
@@ -1092,22 +1191,22 @@
         <v>123</v>
       </c>
       <c r="Q8">
-        <v>1.186752206574266</v>
+        <v>1.1867522065742659</v>
       </c>
       <c r="R8">
-        <v>134.0294785913653</v>
+        <v>134.02947859136529</v>
       </c>
       <c r="S8">
-        <v>3.276422764227642</v>
+        <v>3.2764227642276418</v>
       </c>
       <c r="T8">
-        <v>3.73469387755102</v>
+        <v>3.7346938775510199</v>
       </c>
       <c r="U8">
         <v>1.317665854730794</v>
       </c>
       <c r="V8">
-        <v>138.8687462363822</v>
+        <v>138.86874623638221</v>
       </c>
       <c r="W8">
         <v>786</v>
@@ -1119,10 +1218,10 @@
         <v>774</v>
       </c>
       <c r="Z8">
-        <v>1.015503875968992</v>
+        <v>1.0155038759689921</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1178,10 +1277,10 @@
         <v>143.5679008685027</v>
       </c>
       <c r="S9">
-        <v>4.209876543209877</v>
+        <v>4.2098765432098766</v>
       </c>
       <c r="T9">
-        <v>4.209876543209877</v>
+        <v>4.2098765432098766</v>
       </c>
       <c r="U9">
         <v>1.437433322611078</v>
@@ -1202,7 +1301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1255,19 +1354,19 @@
         <v>0.8513711857748395</v>
       </c>
       <c r="R10">
-        <v>68.80803399152246</v>
+        <v>68.808033991522464</v>
       </c>
       <c r="S10">
         <v>2.342857142857143</v>
       </c>
       <c r="T10">
-        <v>2.20863309352518</v>
+        <v>2.2086330935251799</v>
       </c>
       <c r="U10">
-        <v>0.7923738144565055</v>
+        <v>0.79237381445650545</v>
       </c>
       <c r="V10">
-        <v>57.86003979054574</v>
+        <v>57.860039790545741</v>
       </c>
       <c r="W10">
         <v>611</v>
@@ -1279,10 +1378,10 @@
         <v>591</v>
       </c>
       <c r="Z10">
-        <v>1.033840947546531</v>
+        <v>1.0338409475465311</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1338,10 +1437,10 @@
         <v>100.9260162468768</v>
       </c>
       <c r="S11">
-        <v>3.036697247706422</v>
+        <v>3.0366972477064218</v>
       </c>
       <c r="T11">
-        <v>3.036697247706422</v>
+        <v>3.0366972477064218</v>
       </c>
       <c r="U11">
         <v>1.110770493147919</v>
@@ -1360,9 +1459,52 @@
       </c>
       <c r="Z11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J12" s="3">
+        <f>AVERAGE(J2:J11)</f>
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2">
+        <f>AVERAGE(N2:N11)</f>
+        <v>0.98102572184526049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2">
+        <f>AVERAGE(Z2:Z11)</f>
+        <v>1.0065071962613465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <f>MIN(N2:N11)</f>
+        <v>0.8936170212765957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <f>MAX(Z2:Z11)</f>
+        <v>1.0338409475465311</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>